--- a/Experiments/Measurements/Single Banner Vertical/V path/Antenna_4/Transformed_Coordinates.xlsx
+++ b/Experiments/Measurements/Single Banner Vertical/V path/Antenna_4/Transformed_Coordinates.xlsx
@@ -499,10 +499,10 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>8.033863835300171</v>
+        <v>8.033863835300144</v>
       </c>
       <c r="H2" t="n">
-        <v>189.3657235879181</v>
+        <v>189.3657235879182</v>
       </c>
     </row>
     <row r="3">
@@ -589,10 +589,10 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>-33.44948431789224</v>
+        <v>-33.44948431789222</v>
       </c>
       <c r="H5" t="n">
-        <v>178.8304675138723</v>
+        <v>178.8304675138722</v>
       </c>
     </row>
     <row r="6">
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>79.0037066179616</v>
+        <v>79.00370661796158</v>
       </c>
       <c r="H7" t="n">
         <v>156.0274175414664</v>
@@ -675,7 +675,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>54.67895015523533</v>
+        <v>54.6789501552353</v>
       </c>
       <c r="H8" t="n">
         <v>150.5239053355165</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>-49.63767316412696</v>
+        <v>-49.63767316412693</v>
       </c>
       <c r="H11" t="n">
         <v>124.5860303714597</v>
@@ -795,10 +795,10 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>43.96820818154815</v>
+        <v>43.96820818154817</v>
       </c>
       <c r="H12" t="n">
-        <v>96.10511497296845</v>
+        <v>96.10511497296844</v>
       </c>
     </row>
     <row r="13">
@@ -825,7 +825,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>90.06940199390958</v>
+        <v>90.06940199390957</v>
       </c>
       <c r="H13" t="n">
         <v>100.1494493941219</v>
@@ -858,7 +858,7 @@
         <v>106.5105225738871</v>
       </c>
       <c r="H14" t="n">
-        <v>75.12948682947258</v>
+        <v>75.1294868294726</v>
       </c>
     </row>
     <row r="15">
@@ -945,10 +945,10 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>38.46936710073407</v>
+        <v>38.46936710073409</v>
       </c>
       <c r="H17" t="n">
-        <v>77.06742557932188</v>
+        <v>77.06742557932186</v>
       </c>
     </row>
     <row r="18">
@@ -975,10 +975,10 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>46.66916633473475</v>
+        <v>46.66916633473478</v>
       </c>
       <c r="H18" t="n">
-        <v>54.37843692713908</v>
+        <v>54.37843692713906</v>
       </c>
     </row>
     <row r="19">
@@ -1008,7 +1008,7 @@
         <v>106.649876507511</v>
       </c>
       <c r="H19" t="n">
-        <v>56.55284970320279</v>
+        <v>56.5528497032028</v>
       </c>
     </row>
     <row r="20">
@@ -1038,7 +1038,7 @@
         <v>106.5296400603996</v>
       </c>
       <c r="H20" t="n">
-        <v>44.91385333928436</v>
+        <v>44.91385333928438</v>
       </c>
     </row>
     <row r="21">
@@ -1125,10 +1125,10 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>46.64564739815902</v>
+        <v>46.64564739815904</v>
       </c>
       <c r="H23" t="n">
-        <v>42.05188958414416</v>
+        <v>42.05188958414413</v>
       </c>
     </row>
     <row r="24">
@@ -1155,7 +1155,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>72.22951662529917</v>
+        <v>72.22951662529913</v>
       </c>
       <c r="H24" t="n">
         <v>84.91798371012844</v>
@@ -1185,10 +1185,10 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>56.63351515625086</v>
+        <v>56.63351515625084</v>
       </c>
       <c r="H25" t="n">
-        <v>41.00702160039035</v>
+        <v>41.00702160039038</v>
       </c>
     </row>
     <row r="26">
@@ -1215,10 +1215,10 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>96.57742559037743</v>
+        <v>96.57742559037746</v>
       </c>
       <c r="H26" t="n">
-        <v>43.0899243522428</v>
+        <v>43.08992435224277</v>
       </c>
     </row>
     <row r="27">
@@ -1245,10 +1245,10 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>76.49630970970613</v>
+        <v>76.49630970970608</v>
       </c>
       <c r="H27" t="n">
-        <v>42.03600193355916</v>
+        <v>42.03600193355921</v>
       </c>
     </row>
     <row r="28">
@@ -1335,10 +1335,10 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>-4.943236854065028</v>
+        <v>-4.94323685406505</v>
       </c>
       <c r="H30" t="n">
-        <v>148.0357626629038</v>
+        <v>148.0357626629039</v>
       </c>
     </row>
     <row r="31">
@@ -1365,7 +1365,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>31.03226638492854</v>
+        <v>31.03226638492857</v>
       </c>
       <c r="H31" t="n">
         <v>143.5616656561657</v>
@@ -1395,10 +1395,10 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>50.60196949149595</v>
+        <v>50.60196949149593</v>
       </c>
       <c r="H32" t="n">
-        <v>89.79117234815583</v>
+        <v>89.79117234815584</v>
       </c>
     </row>
     <row r="33">
@@ -1425,7 +1425,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>53.91392553038098</v>
+        <v>53.91392553038096</v>
       </c>
       <c r="H33" t="n">
         <v>133.3198726557559</v>
@@ -1455,7 +1455,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>36.77483814220912</v>
+        <v>36.77483814220917</v>
       </c>
       <c r="H34" t="n">
         <v>150.842723099608</v>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>47.0029180663641</v>
+        <v>47.00291806636415</v>
       </c>
       <c r="H35" t="n">
         <v>174.2911097530722</v>
@@ -1515,7 +1515,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>-20.69096156819326</v>
+        <v>-20.69096156819331</v>
       </c>
       <c r="H36" t="n">
         <v>170.9581588739235</v>
@@ -1545,7 +1545,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>-1.082931458049256</v>
+        <v>-1.082931458049284</v>
       </c>
       <c r="H37" t="n">
         <v>131.4495870172451</v>
@@ -1605,10 +1605,10 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>91.72260265135513</v>
+        <v>91.72260265135516</v>
       </c>
       <c r="H39" t="n">
-        <v>87.39977702190568</v>
+        <v>87.39977702190566</v>
       </c>
     </row>
     <row r="40">
@@ -1635,7 +1635,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>45.44390523518947</v>
+        <v>45.44390523518945</v>
       </c>
       <c r="H40" t="n">
         <v>108.3649389773037</v>
@@ -1665,7 +1665,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>25.76990870268662</v>
+        <v>25.76990870268668</v>
       </c>
       <c r="H41" t="n">
         <v>137.432639805744</v>
@@ -1698,7 +1698,7 @@
         <v>66.44645776817102</v>
       </c>
       <c r="H42" t="n">
-        <v>82.53563927286874</v>
+        <v>82.53563927286871</v>
       </c>
     </row>
     <row r="43">
@@ -1725,10 +1725,10 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>71.54192502383621</v>
+        <v>71.54192502383623</v>
       </c>
       <c r="H43" t="n">
-        <v>95.86579752906445</v>
+        <v>95.86579752906444</v>
       </c>
     </row>
     <row r="44">
@@ -1785,10 +1785,10 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>96.54246980821672</v>
+        <v>96.54246980821677</v>
       </c>
       <c r="H45" t="n">
-        <v>50.33850614112711</v>
+        <v>50.33850614112708</v>
       </c>
     </row>
     <row r="46">
@@ -1815,10 +1815,10 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>76.64667671097311</v>
+        <v>76.64667671097307</v>
       </c>
       <c r="H46" t="n">
-        <v>47.02385987741658</v>
+        <v>47.02385987741663</v>
       </c>
     </row>
     <row r="47">
@@ -1845,10 +1845,10 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>32.65320601963185</v>
+        <v>32.65320601963183</v>
       </c>
       <c r="H47" t="n">
-        <v>93.21754838684456</v>
+        <v>93.21754838684457</v>
       </c>
     </row>
     <row r="48">
@@ -1875,10 +1875,10 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>81.48773390700514</v>
+        <v>81.48773390700512</v>
       </c>
       <c r="H48" t="n">
-        <v>66.45312442346604</v>
+        <v>66.45312442346605</v>
       </c>
     </row>
     <row r="49">
@@ -1905,10 +1905,10 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>96.43977170286985</v>
+        <v>96.43977170286988</v>
       </c>
       <c r="H49" t="n">
-        <v>63.19712739657402</v>
+        <v>63.19712739657399</v>
       </c>
     </row>
     <row r="50">
@@ -1935,10 +1935,10 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>76.73701702066901</v>
+        <v>76.73701702066897</v>
       </c>
       <c r="H50" t="n">
-        <v>55.41676772356501</v>
+        <v>55.41676772356504</v>
       </c>
     </row>
     <row r="51">
@@ -1965,10 +1965,10 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>91.56568515406292</v>
+        <v>91.56568515406295</v>
       </c>
       <c r="H51" t="n">
-        <v>56.07293664752383</v>
+        <v>56.0729366475238</v>
       </c>
     </row>
   </sheetData>
